--- a/BOM(Bill of Materials)/Mini_PCB_BOM.xlsx
+++ b/BOM(Bill of Materials)/Mini_PCB_BOM.xlsx
@@ -673,9 +673,6 @@
     <t>R28,R29,R30,R19,R22,R34</t>
   </si>
   <si>
-    <t>R20,R21,R23,R24,R34,R35,R36</t>
-  </si>
-  <si>
     <t>311-300KJRCT-ND</t>
   </si>
   <si>
@@ -780,6 +777,9 @@
   </si>
   <si>
     <t>R3, R5, R10, R13</t>
+  </si>
+  <si>
+    <t>R20,R21,R23,R24,R35,R36</t>
   </si>
 </sst>
 </file>
@@ -1310,14 +1310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1342,6 +1334,14 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1692,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,10 +1727,10 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1742,8 +1742,8 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>232</v>
+      <c r="A3" s="59" t="s">
+        <v>231</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="21"/>
@@ -1757,10 +1757,10 @@
       <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -1772,10 +1772,10 @@
       <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="57"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -1787,10 +1787,10 @@
       <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -1802,10 +1802,10 @@
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -1817,10 +1817,10 @@
       <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -1845,37 +1845,37 @@
       <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11" s="20" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="64" t="s">
+      <c r="K10" s="58" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>13</v>
@@ -2811,19 +2811,19 @@
         <v>300</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>78</v>
       </c>
       <c r="E37" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="19" t="s">
         <v>205</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>206</v>
       </c>
       <c r="H37" s="37" t="s">
         <v>26</v>
@@ -2841,25 +2841,25 @@
     </row>
     <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="48" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="B38" s="14">
         <v>51</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>78</v>
       </c>
       <c r="E38" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="19" t="s">
         <v>208</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>209</v>
       </c>
       <c r="H38" s="37" t="s">
         <v>26</v>
@@ -2877,25 +2877,25 @@
     </row>
     <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B39" s="14">
         <v>0</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>78</v>
       </c>
       <c r="E39" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>220</v>
       </c>
       <c r="H39" s="37" t="s">
         <v>26</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="40" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="17" t="s">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B42" s="42"/>
       <c r="C42" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D42" s="45" t="s">
         <v>79</v>
@@ -3018,7 +3018,7 @@
         <v>144</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>142</v>
@@ -3045,26 +3045,26 @@
     </row>
     <row r="44" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E44" s="18" t="s">
+      <c r="F44" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="19" t="s">
+      <c r="H44" s="37" t="s">
         <v>227</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>228</v>
       </c>
       <c r="I44" s="34">
         <v>1</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="18" t="s">
@@ -3271,21 +3271,21 @@
     </row>
     <row r="51" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="41" t="s">
         <v>212</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="41" t="s">
-        <v>213</v>
       </c>
       <c r="H51" s="37" t="s">
         <v>24</v>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="18" t="s">
@@ -3335,15 +3335,15 @@
     </row>
     <row r="53" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F53" s="19" t="s">
         <v>16</v>
@@ -3352,7 +3352,7 @@
         <v>512810594</v>
       </c>
       <c r="H53" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I53" s="34">
         <v>1</v>
